--- a/medicine/Médecine vétérinaire/Masse_corporelle/Masse_corporelle.xlsx
+++ b/medicine/Médecine vétérinaire/Masse_corporelle/Masse_corporelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La masse corporelle (ou simplement masse) est la masse du corps d'un individu. Elle est exprimée la plupart du temps en kilogrammes (kg), ou en livres dans certains pays anglo-saxons. En médecine et dans la vie courante, l'expression consacrée est le « poids », même si celle-ci est incorrecte du point de vue de la physique (pour laquelle le poids est une force dépendant de l'accélération de la pesanteur, cette dernière étant variable suivant le lieu), d'autant que c'est le poids qui est, en pratique, mesuré par une balance, bien que converti en grammes suivant l’accélération de la pesanteur sur Terre.
 Si on le compare aux autres données anthropométriques (dimensions et circonférences), le poids est la variable qui varie le plus entre les individus.
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -541,9 +555,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Masses moyennes
-Évolution de la masse corporelle avec l'âge
-(les masses exprimées représentent des poids moyens).
+          <t>Évolution de la masse corporelle avec l'âge</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(les masses exprimées représentent des poids moyens).
 Le poids moyen de naissance d'un être humain est de 3,5 kg.
 La croissance pondérale est rapide durant la première année (voir les courbes de Croissance de l'enfant) :
 25 g/jour durant le premier trimestre,
@@ -555,19 +573,87 @@
 à 1 an : 9,7 kg
 à 2 ans : 13,2 kg
 à 3 ans : 15,2 kg
-à 4 ans : 16,7 kg
-Répartition de la masse corporelle
-Elle se répartit (pour un sujet de corpulence normale[5]) en
-masse osseuse (squelette)[6] :
-la masse du squelette « sec », c'est-à-dire sans la moelle rouge, est de 4 à 6 kilogrammes en moyenne chez l'homme et de 3 à 4 kilogrammes chez la femme[7] ;
+à 4 ans : 16,7 kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Masse_corporelle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Masse_corporelle</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Être humain</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Répartition de la masse corporelle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Elle se répartit (pour un sujet de corpulence normale) en
+masse osseuse (squelette) :
+la masse du squelette « sec », c'est-à-dire sans la moelle rouge, est de 4 à 6 kilogrammes en moyenne chez l'homme et de 3 à 4 kilogrammes chez la femme ;
 masse musculaire : 35 % chez l'homme, 28 % chez la femme
-masse grasse : environ 13 % chez l'homme et 20 % chez la femme[8] ;
+masse grasse : environ 13 % chez l'homme et 20 % chez la femme ;
 masse viscérale : 28 % ;
 masse sanguine : 7 à 8 %;
 peau et téguments : 2 à 5 % ;
-humeurs (liquides, sécrétions) : 2 %.
-Teneur en eau
-Le corps humain d'un adulte sain, et de corpulence normale, contient environ 56 % d’eau, c’est-à-dire environ 40 litres d’eau pour une personne de 70 kg.
+humeurs (liquides, sécrétions) : 2 %.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Masse_corporelle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Masse_corporelle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Être humain</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Teneur en eau</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le corps humain d'un adulte sain, et de corpulence normale, contient environ 56 % d’eau, c’est-à-dire environ 40 litres d’eau pour une personne de 70 kg.
 La part de l’eau dans le corps diminue avec l’âge :
 97 % chez le fœtus,
 80 % chez le nouveau-né,
@@ -578,9 +664,43 @@
 La répartition n'est pas homogène selon les organes :
 80 % dans le cerveau,
 75 % dans les muscles,
-31 % dans les os.
-Indice de masse corporelle
-Pour les adultes, l'indice de masse corporelle est égal au poids (exprimée en kilogrammes) divisée par le carré de la taille de la personne (en mètres) :
+31 % dans les os.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Masse_corporelle</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Masse_corporelle</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Être humain</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Indice de masse corporelle</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pour les adultes, l'indice de masse corporelle est égal au poids (exprimée en kilogrammes) divisée par le carré de la taille de la personne (en mètres) :
         I
         M
         C
